--- a/Code/Results/Cases/Case_2_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.82273885277566</v>
+        <v>17.69814383710417</v>
       </c>
       <c r="C2">
-        <v>22.77278994404322</v>
+        <v>14.17583283824367</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.53291275355667</v>
+        <v>18.861019024475</v>
       </c>
       <c r="F2">
-        <v>43.74379365334829</v>
+        <v>45.16944210495318</v>
       </c>
       <c r="G2">
-        <v>2.046885716375968</v>
+        <v>3.652468423574997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.50744329769507</v>
+        <v>23.679235715812</v>
       </c>
       <c r="J2">
-        <v>5.429090785134694</v>
+        <v>8.765655687048856</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.02135452769364</v>
+        <v>17.3715774693497</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.96462598191652</v>
+        <v>17.09024421006961</v>
       </c>
       <c r="C3">
-        <v>21.10534634980699</v>
+        <v>13.54621278142966</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.70316906199135</v>
+        <v>18.74643778654163</v>
       </c>
       <c r="F3">
-        <v>41.39005908042389</v>
+        <v>44.81053405387173</v>
       </c>
       <c r="G3">
-        <v>2.059127980852636</v>
+        <v>3.656613830622018</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.04554245278633</v>
+        <v>23.70178474691726</v>
       </c>
       <c r="J3">
-        <v>5.403883493577425</v>
+        <v>8.790270211142079</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.34551887617211</v>
+        <v>17.4529703844758</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76744920833416</v>
+        <v>16.71100213583595</v>
       </c>
       <c r="C4">
-        <v>20.0345156716357</v>
+        <v>13.14889310772383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.17933972980618</v>
+        <v>18.67934522031161</v>
       </c>
       <c r="F4">
-        <v>39.93380119811008</v>
+        <v>44.60358811666204</v>
       </c>
       <c r="G4">
-        <v>2.06677720526978</v>
+        <v>3.659287199767737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.78816099259277</v>
+        <v>23.72339157788267</v>
       </c>
       <c r="J4">
-        <v>5.393983396679344</v>
+        <v>8.807083565012116</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.54616816349815</v>
+        <v>17.5049977256596</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26517594537671</v>
+        <v>16.55521771192892</v>
       </c>
       <c r="C5">
-        <v>19.58606493767117</v>
+        <v>12.98454776540675</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.96244511407968</v>
+        <v>18.65284510658708</v>
       </c>
       <c r="F5">
-        <v>39.33801973727795</v>
+        <v>44.52270234611378</v>
       </c>
       <c r="G5">
-        <v>2.069931456965622</v>
+        <v>3.660408958357569</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.68960109598458</v>
+        <v>23.73413485232052</v>
       </c>
       <c r="J5">
-        <v>5.391266449057662</v>
+        <v>8.814361249709153</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.62843733502548</v>
+        <v>17.52671743707786</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18089614173693</v>
+        <v>16.52928310200349</v>
       </c>
       <c r="C6">
-        <v>19.51086361098883</v>
+        <v>12.95711968780527</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.9262290927985</v>
+        <v>18.64849613614708</v>
       </c>
       <c r="F6">
-        <v>39.23896482497927</v>
+        <v>44.50948139377181</v>
       </c>
       <c r="G6">
-        <v>2.07045756603338</v>
+        <v>3.660597182641798</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.67360921633331</v>
+        <v>23.73603541987035</v>
       </c>
       <c r="J6">
-        <v>5.390892459974214</v>
+        <v>8.81559539952576</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.64213114618635</v>
+        <v>17.53035533828027</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.7607340637903</v>
+        <v>16.70890582749505</v>
       </c>
       <c r="C7">
-        <v>20.02851693083144</v>
+        <v>13.14668617214669</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.17642822268829</v>
+        <v>18.6789844003344</v>
       </c>
       <c r="F7">
-        <v>39.9257750841163</v>
+        <v>44.60248322125759</v>
       </c>
       <c r="G7">
-        <v>2.066819589460274</v>
+        <v>3.659302197082657</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.78680653354635</v>
+        <v>23.72352863609142</v>
       </c>
       <c r="J7">
-        <v>5.39394153025552</v>
+        <v>8.807179990944803</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.54727551465166</v>
+        <v>17.50528854448914</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19357971225122</v>
+        <v>17.48993603423393</v>
       </c>
       <c r="C8">
-        <v>22.20744861167115</v>
+        <v>13.96111507228201</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.24989147467618</v>
+        <v>18.820847435015</v>
       </c>
       <c r="F8">
-        <v>42.93473184127784</v>
+        <v>45.04294878288931</v>
       </c>
       <c r="G8">
-        <v>2.051081787451152</v>
+        <v>3.65387125943723</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.34257653590777</v>
+        <v>23.68539197225244</v>
       </c>
       <c r="J8">
-        <v>5.419189301163861</v>
+        <v>8.773789141755742</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.13285371720201</v>
+        <v>17.39921724556921</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.53091510781623</v>
+        <v>18.96342483530048</v>
       </c>
       <c r="C9">
-        <v>26.12065285110459</v>
+        <v>15.46310713903292</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.235642093403</v>
+        <v>19.12394834303801</v>
       </c>
       <c r="F9">
-        <v>48.73725811998658</v>
+        <v>46.00978039998996</v>
       </c>
       <c r="G9">
-        <v>2.021076192082465</v>
+        <v>3.644231276189285</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.65243629018153</v>
+        <v>23.67273783947384</v>
       </c>
       <c r="J9">
-        <v>5.517002978468252</v>
+        <v>8.721858524462698</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.32802653151971</v>
+        <v>17.20738840458037</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.47409338555212</v>
+        <v>19.99794008310855</v>
       </c>
       <c r="C10">
-        <v>28.79801181515018</v>
+        <v>16.49739815115373</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.61834134221735</v>
+        <v>19.36045671275163</v>
       </c>
       <c r="F10">
-        <v>52.94036634472984</v>
+        <v>46.77790242686034</v>
       </c>
       <c r="G10">
-        <v>1.999242283576228</v>
+        <v>3.637755950377945</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.76594453748611</v>
+        <v>23.70198556551735</v>
       </c>
       <c r="J10">
-        <v>5.624328351134135</v>
+        <v>8.692047355972445</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.73372743538421</v>
+        <v>17.07616607004968</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.76560271860001</v>
+        <v>20.455893811054</v>
       </c>
       <c r="C11">
-        <v>29.97887260227852</v>
+        <v>16.95104865276532</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.23108712352736</v>
+        <v>19.47074146310058</v>
       </c>
       <c r="F11">
-        <v>54.84345475689304</v>
+        <v>47.13870324287387</v>
       </c>
       <c r="G11">
-        <v>1.989272450790127</v>
+        <v>3.634940154893422</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.30953137986</v>
+        <v>23.72377583997388</v>
       </c>
       <c r="J11">
-        <v>5.682320374437147</v>
+        <v>8.680314326858459</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.460684957263787</v>
+        <v>17.018547181786</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.24838658853346</v>
+        <v>20.6273304565016</v>
       </c>
       <c r="C12">
-        <v>30.42127518985167</v>
+        <v>17.12028735181184</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.46086890579461</v>
+        <v>19.51286381781616</v>
       </c>
       <c r="F12">
-        <v>55.56343935863046</v>
+        <v>47.27685944695918</v>
       </c>
       <c r="G12">
-        <v>1.98548349113126</v>
+        <v>3.633892418000416</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.52111478861105</v>
+        <v>23.73325451597809</v>
       </c>
       <c r="J12">
-        <v>5.705735875271835</v>
+        <v>8.67613562629168</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.356706183406709</v>
+        <v>16.99702435223323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.14468059619355</v>
+        <v>20.59049895433366</v>
       </c>
       <c r="C13">
-        <v>30.32619768818481</v>
+        <v>17.08395392120804</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.41147951163721</v>
+        <v>19.5037764556672</v>
       </c>
       <c r="F13">
-        <v>55.40839541796048</v>
+        <v>47.24703878629811</v>
       </c>
       <c r="G13">
-        <v>1.986300261688818</v>
+        <v>3.634117244221764</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.47528389155933</v>
+        <v>23.73115843911478</v>
       </c>
       <c r="J13">
-        <v>5.700625862942227</v>
+        <v>8.677023804718074</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.379129252859014</v>
+        <v>17.00164653981132</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.80544424283477</v>
+        <v>20.47003855439972</v>
       </c>
       <c r="C14">
-        <v>30.01536121333053</v>
+        <v>16.96502375442014</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.25003586106365</v>
+        <v>19.47419984234162</v>
       </c>
       <c r="F14">
-        <v>54.90269745998029</v>
+        <v>47.150039424211</v>
       </c>
       <c r="G14">
-        <v>1.988961055252806</v>
+        <v>3.634853586051119</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.32682082705783</v>
+        <v>23.72453102724108</v>
       </c>
       <c r="J14">
-        <v>5.68421677901164</v>
+        <v>8.679965236620404</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.45214347995152</v>
+        <v>17.01677056188836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.59685101395413</v>
+        <v>20.39599070614943</v>
       </c>
       <c r="C15">
-        <v>29.82436296808085</v>
+        <v>16.89184026729993</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.15085714825915</v>
+        <v>19.45612935061667</v>
       </c>
       <c r="F15">
-        <v>54.59287738513573</v>
+        <v>47.09082036433993</v>
       </c>
       <c r="G15">
-        <v>1.990588830241291</v>
+        <v>3.635307027758969</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.23664379521787</v>
+        <v>23.72063154227421</v>
       </c>
       <c r="J15">
-        <v>5.674359570287784</v>
+        <v>8.681801416375258</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.496784509337314</v>
+        <v>17.02607297098693</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.38878055028052</v>
+        <v>19.96774292281074</v>
       </c>
       <c r="C16">
-        <v>28.72014015573278</v>
+        <v>16.46740071135632</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.57797603774561</v>
+        <v>19.35330123432584</v>
       </c>
       <c r="F16">
-        <v>52.81586209905037</v>
+        <v>46.7545430952219</v>
       </c>
       <c r="G16">
-        <v>1.999892409368598</v>
+        <v>3.637942571257622</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.73119886296275</v>
+        <v>23.70073289783923</v>
       </c>
       <c r="J16">
-        <v>5.62073428321509</v>
+        <v>8.692851049733017</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.751501058211897</v>
+        <v>17.07997316554065</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.63589012483437</v>
+        <v>19.70166544434649</v>
       </c>
       <c r="C17">
-        <v>28.03361438873114</v>
+        <v>16.20260852507992</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.2224139237523</v>
+        <v>19.29089044600544</v>
       </c>
       <c r="F17">
-        <v>51.72379374045201</v>
+        <v>46.5510867437842</v>
       </c>
       <c r="G17">
-        <v>2.005584816058645</v>
+        <v>3.639592559976986</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.43088406639389</v>
+        <v>23.69070446419507</v>
       </c>
       <c r="J17">
-        <v>5.590277973120789</v>
+        <v>8.700098930149457</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.906940481687537</v>
+        <v>17.11356905899605</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.1983541846047</v>
+        <v>19.54744217479377</v>
       </c>
       <c r="C18">
-        <v>27.63521357211152</v>
+        <v>16.04872684659643</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.01636613505518</v>
+        <v>19.25524886573593</v>
       </c>
       <c r="F18">
-        <v>51.09477422743481</v>
+        <v>46.43514166787413</v>
       </c>
       <c r="G18">
-        <v>2.008855972397217</v>
+        <v>3.640553820926148</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.26160967470995</v>
+        <v>23.68573472950757</v>
       </c>
       <c r="J18">
-        <v>5.573614381913853</v>
+        <v>8.704439715059259</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.996104918799324</v>
+        <v>17.13308794856875</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.04942549906037</v>
+        <v>19.49502694638274</v>
       </c>
       <c r="C19">
-        <v>27.49969983741768</v>
+        <v>15.99635790073852</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.94633601799449</v>
+        <v>19.24322594951945</v>
       </c>
       <c r="F19">
-        <v>50.88163133916278</v>
+        <v>46.39607296206493</v>
       </c>
       <c r="G19">
-        <v>2.009963249602661</v>
+        <v>3.640881392038216</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.20487892661544</v>
+        <v>23.68418894365913</v>
       </c>
       <c r="J19">
-        <v>5.568115140310904</v>
+        <v>8.705938926190383</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.02625875173407</v>
+        <v>17.13973033864064</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.71649806379681</v>
+        <v>19.73011346224309</v>
       </c>
       <c r="C20">
-        <v>28.10705766866774</v>
+        <v>16.23096062303677</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.26042283012561</v>
+        <v>19.29750794160763</v>
       </c>
       <c r="F20">
-        <v>51.84013480610812</v>
+        <v>46.57263425658643</v>
       </c>
       <c r="G20">
-        <v>2.004979211861647</v>
+        <v>3.639415650936594</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.4624923735721</v>
+        <v>23.69168932604449</v>
       </c>
       <c r="J20">
-        <v>5.593430764040884</v>
+        <v>8.699309569442661</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.890419885285521</v>
+        <v>17.10997250920589</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.90525208739657</v>
+        <v>20.50547563368335</v>
       </c>
       <c r="C21">
-        <v>30.10678571330143</v>
+        <v>17.00002650548894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.29751594480306</v>
+        <v>19.48287766665006</v>
       </c>
       <c r="F21">
-        <v>55.05124541601361</v>
+        <v>47.17848986891084</v>
       </c>
       <c r="G21">
-        <v>1.988179956996653</v>
+        <v>3.634636802372126</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.37026861418497</v>
+        <v>23.72644430529056</v>
       </c>
       <c r="J21">
-        <v>5.688995864326479</v>
+        <v>8.679094081166214</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.430714971994449</v>
+        <v>17.01232024862691</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.29941578818796</v>
+        <v>21.0006141841642</v>
       </c>
       <c r="C22">
-        <v>31.38629152963844</v>
+        <v>17.48775379422296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.96226958022918</v>
+        <v>19.6061121080851</v>
       </c>
       <c r="F22">
-        <v>57.18082748717626</v>
+        <v>47.58331057301563</v>
       </c>
       <c r="G22">
-        <v>1.977116549608072</v>
+        <v>3.631621575329082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.99725485828455</v>
+        <v>23.75631378132484</v>
       </c>
       <c r="J22">
-        <v>5.760010619343428</v>
+        <v>8.66742353773709</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.126757785347113</v>
+        <v>16.95022428690577</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.55845077975503</v>
+        <v>20.73745970238961</v>
       </c>
       <c r="C23">
-        <v>30.70569206148194</v>
+        <v>17.22884451764818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.6086296821765</v>
+        <v>19.54015813263716</v>
       </c>
       <c r="F23">
-        <v>56.02824030865465</v>
+        <v>47.36647576833267</v>
       </c>
       <c r="G23">
-        <v>1.983032078704696</v>
+        <v>3.633221017321091</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.65937946816018</v>
+        <v>23.73971526340601</v>
       </c>
       <c r="J23">
-        <v>5.721276247860376</v>
+        <v>8.673510812147141</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.289379371924147</v>
+        <v>16.98320890715643</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.68006985909253</v>
+        <v>19.71725599995122</v>
       </c>
       <c r="C24">
-        <v>28.0738655530185</v>
+        <v>16.21814776648477</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.24324408754937</v>
+        <v>19.29451542465223</v>
       </c>
       <c r="F24">
-        <v>51.78754071259301</v>
+        <v>46.56288942625642</v>
       </c>
       <c r="G24">
-        <v>2.005253009542057</v>
+        <v>3.639495592069371</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.44819175817131</v>
+        <v>23.69124159198062</v>
       </c>
       <c r="J24">
-        <v>5.592002761825096</v>
+        <v>8.699665897924568</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.897889454722113</v>
+        <v>17.11159787328068</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.40196421424379</v>
+        <v>18.57241684777333</v>
       </c>
       <c r="C25">
-        <v>25.09848506081204</v>
+        <v>15.06822823281613</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.71176087336348</v>
+        <v>19.039421827578</v>
       </c>
       <c r="F25">
-        <v>47.17873679911773</v>
+        <v>45.73769007455616</v>
       </c>
       <c r="G25">
-        <v>2.02913141851676</v>
+        <v>3.64673190157322</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.27283207983639</v>
+        <v>23.66943536515696</v>
       </c>
       <c r="J25">
-        <v>5.484776724153109</v>
+        <v>8.734448045679033</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.54565924808034</v>
+        <v>17.25756660788098</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.69814383710417</v>
+        <v>25.82273885277566</v>
       </c>
       <c r="C2">
-        <v>14.17583283824367</v>
+        <v>22.77278994404315</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.861019024475</v>
+        <v>15.53291275355673</v>
       </c>
       <c r="F2">
-        <v>45.16944210495318</v>
+        <v>43.74379365334835</v>
       </c>
       <c r="G2">
-        <v>3.652468423574997</v>
+        <v>2.046885716375968</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.679235715812</v>
+        <v>18.50744329769509</v>
       </c>
       <c r="J2">
-        <v>8.765655687048856</v>
+        <v>5.429090785134742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.3715774693497</v>
+        <v>11.02135452769364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.09024421006961</v>
+        <v>23.96462598191655</v>
       </c>
       <c r="C3">
-        <v>13.54621278142966</v>
+        <v>21.10534634980702</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.74643778654163</v>
+        <v>14.70316906199134</v>
       </c>
       <c r="F3">
-        <v>44.81053405387173</v>
+        <v>41.39005908042391</v>
       </c>
       <c r="G3">
-        <v>3.656613830622018</v>
+        <v>2.059127980852637</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.70178474691726</v>
+        <v>18.04554245278626</v>
       </c>
       <c r="J3">
-        <v>8.790270211142079</v>
+        <v>5.403883493577355</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.4529703844758</v>
+        <v>11.34551887617211</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.71100213583595</v>
+        <v>22.76744920833415</v>
       </c>
       <c r="C4">
-        <v>13.14889310772383</v>
+        <v>20.03451567163563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.67934522031161</v>
+        <v>14.17933972980613</v>
       </c>
       <c r="F4">
-        <v>44.60358811666204</v>
+        <v>39.93380119811008</v>
       </c>
       <c r="G4">
-        <v>3.659287199767737</v>
+        <v>2.066777205269779</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.72339157788267</v>
+        <v>17.78816099259284</v>
       </c>
       <c r="J4">
-        <v>8.807083565012116</v>
+        <v>5.393983396679365</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.5049977256596</v>
+        <v>11.54616816349821</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.55521771192892</v>
+        <v>22.2651759453767</v>
       </c>
       <c r="C5">
-        <v>12.98454776540675</v>
+        <v>19.58606493767117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.65284510658708</v>
+        <v>13.96244511407967</v>
       </c>
       <c r="F5">
-        <v>44.52270234611378</v>
+        <v>39.33801973727793</v>
       </c>
       <c r="G5">
-        <v>3.660408958357569</v>
+        <v>2.069931456965753</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.73413485232052</v>
+        <v>17.68960109598457</v>
       </c>
       <c r="J5">
-        <v>8.814361249709153</v>
+        <v>5.391266449057612</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.52671743707786</v>
+        <v>11.62843733502548</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.52928310200349</v>
+        <v>22.18089614173698</v>
       </c>
       <c r="C6">
-        <v>12.95711968780527</v>
+        <v>19.51086361098889</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.64849613614708</v>
+        <v>13.92622909279851</v>
       </c>
       <c r="F6">
-        <v>44.50948139377181</v>
+        <v>39.23896482497931</v>
       </c>
       <c r="G6">
-        <v>3.660597182641798</v>
+        <v>2.070457566033248</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.73603541987035</v>
+        <v>17.67360921633329</v>
       </c>
       <c r="J6">
-        <v>8.81559539952576</v>
+        <v>5.390892459974221</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.53035533828027</v>
+        <v>11.64213114618632</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.70890582749505</v>
+        <v>22.76073406379034</v>
       </c>
       <c r="C7">
-        <v>13.14668617214669</v>
+        <v>20.02851693083151</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.6789844003344</v>
+        <v>14.17642822268824</v>
       </c>
       <c r="F7">
-        <v>44.60248322125759</v>
+        <v>39.92577508411629</v>
       </c>
       <c r="G7">
-        <v>3.659302197082657</v>
+        <v>2.066819589460271</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.72352863609142</v>
+        <v>17.78680653354631</v>
       </c>
       <c r="J7">
-        <v>8.807179990944803</v>
+        <v>5.393941530255415</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.50528854448914</v>
+        <v>11.54727551465156</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48993603423393</v>
+        <v>25.19357971225125</v>
       </c>
       <c r="C8">
-        <v>13.96111507228201</v>
+        <v>22.20744861167118</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.820847435015</v>
+        <v>15.24989147467611</v>
       </c>
       <c r="F8">
-        <v>45.04294878288931</v>
+        <v>42.93473184127781</v>
       </c>
       <c r="G8">
-        <v>3.65387125943723</v>
+        <v>2.051081787451018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.68539197225244</v>
+        <v>18.34257653590779</v>
       </c>
       <c r="J8">
-        <v>8.773789141755742</v>
+        <v>5.41918930116382</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.39921724556921</v>
+        <v>11.13285371720201</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.96342483530048</v>
+        <v>29.5309151078162</v>
       </c>
       <c r="C9">
-        <v>15.46310713903292</v>
+        <v>26.12065285110456</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.12394834303801</v>
+        <v>17.23564209340299</v>
       </c>
       <c r="F9">
-        <v>46.00978039998996</v>
+        <v>48.73725811998663</v>
       </c>
       <c r="G9">
-        <v>3.644231276189285</v>
+        <v>2.021076192082461</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.67273783947384</v>
+        <v>19.6524362901816</v>
       </c>
       <c r="J9">
-        <v>8.721858524462698</v>
+        <v>5.517002978468236</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.20738840458037</v>
+        <v>10.32802653151968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.99794008310855</v>
+        <v>32.47409338555202</v>
       </c>
       <c r="C10">
-        <v>16.49739815115373</v>
+        <v>28.79801181515005</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.36045671275163</v>
+        <v>18.61834134221728</v>
       </c>
       <c r="F10">
-        <v>46.77790242686034</v>
+        <v>52.9403663447298</v>
       </c>
       <c r="G10">
-        <v>3.637755950377945</v>
+        <v>1.999242283576093</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.70198556551735</v>
+        <v>20.76594453748617</v>
       </c>
       <c r="J10">
-        <v>8.692047355972445</v>
+        <v>5.624328351134129</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.07616607004968</v>
+        <v>9.73372743538428</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.455893811054</v>
+        <v>33.7656027186</v>
       </c>
       <c r="C11">
-        <v>16.95104865276532</v>
+        <v>29.97887260227855</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.47074146310058</v>
+        <v>19.23108712352736</v>
       </c>
       <c r="F11">
-        <v>47.13870324287387</v>
+        <v>54.84345475689305</v>
       </c>
       <c r="G11">
-        <v>3.634940154893422</v>
+        <v>1.989272450790126</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.72377583997388</v>
+        <v>21.30953137986002</v>
       </c>
       <c r="J11">
-        <v>8.680314326858459</v>
+        <v>5.682320374437142</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.018547181786</v>
+        <v>9.460684957263851</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.6273304565016</v>
+        <v>34.24838658853347</v>
       </c>
       <c r="C12">
-        <v>17.12028735181184</v>
+        <v>30.42127518985162</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.51286381781616</v>
+        <v>19.46086890579458</v>
       </c>
       <c r="F12">
-        <v>47.27685944695918</v>
+        <v>55.56343935863044</v>
       </c>
       <c r="G12">
-        <v>3.633892418000416</v>
+        <v>1.985483491130999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.73325451597809</v>
+        <v>21.52111478861107</v>
       </c>
       <c r="J12">
-        <v>8.67613562629168</v>
+        <v>5.705735875271835</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.99702435223323</v>
+        <v>9.356706183406743</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.59049895433366</v>
+        <v>34.14468059619344</v>
       </c>
       <c r="C13">
-        <v>17.08395392120804</v>
+        <v>30.32619768818466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.5037764556672</v>
+        <v>19.4114795116372</v>
       </c>
       <c r="F13">
-        <v>47.24703878629811</v>
+        <v>55.40839541796048</v>
       </c>
       <c r="G13">
-        <v>3.634117244221764</v>
+        <v>1.986300261688821</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.73115843911478</v>
+        <v>21.4752838915594</v>
       </c>
       <c r="J13">
-        <v>8.677023804718074</v>
+        <v>5.70062586294228</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.00164653981132</v>
+        <v>9.379129252859084</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.47003855439972</v>
+        <v>33.80544424283477</v>
       </c>
       <c r="C14">
-        <v>16.96502375442014</v>
+        <v>30.01536121333053</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.47419984234162</v>
+        <v>19.25003586106365</v>
       </c>
       <c r="F14">
-        <v>47.150039424211</v>
+        <v>54.90269745998032</v>
       </c>
       <c r="G14">
-        <v>3.634853586051119</v>
+        <v>1.988961055252806</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.72453102724108</v>
+        <v>21.32682082705789</v>
       </c>
       <c r="J14">
-        <v>8.679965236620404</v>
+        <v>5.684216779011633</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.01677056188836</v>
+        <v>9.452143479951559</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.39599070614943</v>
+        <v>33.59685101395392</v>
       </c>
       <c r="C15">
-        <v>16.89184026729993</v>
+        <v>29.82436296808078</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.45612935061667</v>
+        <v>19.15085714825914</v>
       </c>
       <c r="F15">
-        <v>47.09082036433993</v>
+        <v>54.59287738513563</v>
       </c>
       <c r="G15">
-        <v>3.635307027758969</v>
+        <v>1.990588830241027</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.72063154227421</v>
+        <v>21.23664379521789</v>
       </c>
       <c r="J15">
-        <v>8.681801416375258</v>
+        <v>5.674359570287781</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.02607297098693</v>
+        <v>9.496784509337441</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.96774292281074</v>
+        <v>32.38878055028057</v>
       </c>
       <c r="C16">
-        <v>16.46740071135632</v>
+        <v>28.72014015573282</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.35330123432584</v>
+        <v>18.57797603774556</v>
       </c>
       <c r="F16">
-        <v>46.7545430952219</v>
+        <v>52.81586209905037</v>
       </c>
       <c r="G16">
-        <v>3.637942571257622</v>
+        <v>1.999892409368465</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.70073289783923</v>
+        <v>20.73119886296278</v>
       </c>
       <c r="J16">
-        <v>8.692851049733017</v>
+        <v>5.62073428321508</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.07997316554065</v>
+        <v>9.751501058211899</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.70166544434649</v>
+        <v>31.63589012483435</v>
       </c>
       <c r="C17">
-        <v>16.20260852507992</v>
+        <v>28.0336143887311</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.29089044600544</v>
+        <v>18.22241392375227</v>
       </c>
       <c r="F17">
-        <v>46.5510867437842</v>
+        <v>51.72379374045198</v>
       </c>
       <c r="G17">
-        <v>3.639592559976986</v>
+        <v>2.005584816058779</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.69070446419507</v>
+        <v>20.43088406639389</v>
       </c>
       <c r="J17">
-        <v>8.700098930149457</v>
+        <v>5.590277973120828</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.11356905899605</v>
+        <v>9.906940481687537</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.54744217479377</v>
+        <v>31.1983541846048</v>
       </c>
       <c r="C18">
-        <v>16.04872684659643</v>
+        <v>27.63521357211167</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.25524886573593</v>
+        <v>18.01636613505518</v>
       </c>
       <c r="F18">
-        <v>46.43514166787413</v>
+        <v>51.09477422743491</v>
       </c>
       <c r="G18">
-        <v>3.640553820926148</v>
+        <v>2.008855972397086</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.68573472950757</v>
+        <v>20.26160967470999</v>
       </c>
       <c r="J18">
-        <v>8.704439715059259</v>
+        <v>5.573614381913818</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.13308794856875</v>
+        <v>9.996104918799258</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.49502694638274</v>
+        <v>31.04942549906043</v>
       </c>
       <c r="C19">
-        <v>15.99635790073852</v>
+        <v>27.49969983741774</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.24322594951945</v>
+        <v>17.94633601799445</v>
       </c>
       <c r="F19">
-        <v>46.39607296206493</v>
+        <v>50.88163133916279</v>
       </c>
       <c r="G19">
-        <v>3.640881392038216</v>
+        <v>2.009963249602663</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.68418894365913</v>
+        <v>20.20487892661548</v>
       </c>
       <c r="J19">
-        <v>8.705938926190383</v>
+        <v>5.568115140310897</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.13973033864064</v>
+        <v>10.0262587517341</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.73011346224309</v>
+        <v>31.71649806379699</v>
       </c>
       <c r="C20">
-        <v>16.23096062303677</v>
+        <v>28.10705766866782</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.29750794160763</v>
+        <v>18.26042283012558</v>
       </c>
       <c r="F20">
-        <v>46.57263425658643</v>
+        <v>51.84013480610821</v>
       </c>
       <c r="G20">
-        <v>3.639415650936594</v>
+        <v>2.004979211861518</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.69168932604449</v>
+        <v>20.4624923735721</v>
       </c>
       <c r="J20">
-        <v>8.699309569442661</v>
+        <v>5.593430764040828</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.10997250920589</v>
+        <v>9.890419885285459</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.50547563368335</v>
+        <v>33.90525208739648</v>
       </c>
       <c r="C21">
-        <v>17.00002650548894</v>
+        <v>30.10678571330155</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.48287766665006</v>
+        <v>19.29751594480298</v>
       </c>
       <c r="F21">
-        <v>47.17848986891084</v>
+        <v>55.05124541601355</v>
       </c>
       <c r="G21">
-        <v>3.634636802372126</v>
+        <v>1.988179956996919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.72644430529056</v>
+        <v>21.37026861418503</v>
       </c>
       <c r="J21">
-        <v>8.679094081166214</v>
+        <v>5.688995864326488</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.01232024862691</v>
+        <v>9.430714971994485</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.0006141841642</v>
+        <v>35.29941578818789</v>
       </c>
       <c r="C22">
-        <v>17.48775379422296</v>
+        <v>31.38629152963842</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.6061121080851</v>
+        <v>19.96226958022917</v>
       </c>
       <c r="F22">
-        <v>47.58331057301563</v>
+        <v>57.18082748717623</v>
       </c>
       <c r="G22">
-        <v>3.631621575329082</v>
+        <v>1.977116549608068</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.75631378132484</v>
+        <v>21.99725485828458</v>
       </c>
       <c r="J22">
-        <v>8.66742353773709</v>
+        <v>5.760010619343427</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.95022428690577</v>
+        <v>9.126757785347149</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.73745970238961</v>
+        <v>34.558450779755</v>
       </c>
       <c r="C23">
-        <v>17.22884451764818</v>
+        <v>30.70569206148186</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.54015813263716</v>
+        <v>19.60862968217642</v>
       </c>
       <c r="F23">
-        <v>47.36647576833267</v>
+        <v>56.02824030865461</v>
       </c>
       <c r="G23">
-        <v>3.633221017321091</v>
+        <v>1.9830320787047</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.73971526340601</v>
+        <v>21.65937946816026</v>
       </c>
       <c r="J23">
-        <v>8.673510812147141</v>
+        <v>5.721276247860367</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.98320890715643</v>
+        <v>9.289379371924252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.71725599995122</v>
+        <v>31.6800698590926</v>
       </c>
       <c r="C24">
-        <v>16.21814776648477</v>
+        <v>28.0738655530185</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.29451542465223</v>
+        <v>18.24324408754935</v>
       </c>
       <c r="F24">
-        <v>46.56288942625642</v>
+        <v>51.78754071259304</v>
       </c>
       <c r="G24">
-        <v>3.639495592069371</v>
+        <v>2.005253009541919</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.69124159198062</v>
+        <v>20.44819175817131</v>
       </c>
       <c r="J24">
-        <v>8.699665897924568</v>
+        <v>5.592002761825061</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.11159787328068</v>
+        <v>9.897889454722012</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.57241684777333</v>
+        <v>28.40196421424383</v>
       </c>
       <c r="C25">
-        <v>15.06822823281613</v>
+        <v>25.09848506081214</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.039421827578</v>
+        <v>16.71176087336352</v>
       </c>
       <c r="F25">
-        <v>45.73769007455616</v>
+        <v>47.17873679911779</v>
       </c>
       <c r="G25">
-        <v>3.64673190157322</v>
+        <v>2.029131418517022</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.66943536515696</v>
+        <v>19.27283207983636</v>
       </c>
       <c r="J25">
-        <v>8.734448045679033</v>
+        <v>5.484776724153051</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.25756660788098</v>
+        <v>10.54565924808028</v>
       </c>
       <c r="O25">
         <v>0</v>
